--- a/InputData/indst/PPRiFUfIIaIoE/Pot Perc Red in Fuel Use fr Impr Inst and Integ of Eqpt.xlsx
+++ b/InputData/indst/PPRiFUfIIaIoE/Pot Perc Red in Fuel Use fr Impr Inst and Integ of Eqpt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\indst\PPRiFUfIIaIoE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/ct/indst/pprifufiiaioe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63BBFFB-8C12-499D-B433-EE349EBB73DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0EA6A05-1405-8045-9DF5-12E0DEB1C907}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="420" windowWidth="23580" windowHeight="15330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3540" yWindow="460" windowWidth="23580" windowHeight="15340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -246,7 +246,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -267,6 +267,7 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -607,22 +608,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="41.140625" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" customWidth="1"/>
+    <col min="2" max="2" width="41.1640625" customWidth="1"/>
+    <col min="3" max="3" width="29.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="14">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -630,37 +634,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>2011</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -680,13 +684,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.42578125" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="43.5" customWidth="1"/>
+    <col min="2" max="2" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -694,7 +698,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -702,7 +706,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -710,7 +714,7 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -719,7 +723,7 @@
         <v>3.6065573770491806E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -727,7 +731,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
@@ -750,13 +754,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="47.7109375" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="1" max="1" width="47.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>39</v>
       </c>
@@ -764,7 +768,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -772,7 +776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -781,7 +785,7 @@
         <v>3.6065573770491806E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -790,7 +794,7 @@
         <v>3.6065573770491806E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -799,7 +803,7 @@
         <v>3.6065573770491806E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -808,7 +812,7 @@
         <v>3.6065573770491806E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -817,7 +821,7 @@
         <v>3.6065573770491806E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -826,7 +830,7 @@
         <v>3.6065573770491806E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -835,7 +839,7 @@
         <v>3.6065573770491806E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -844,7 +848,7 @@
         <v>3.6065573770491806E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -853,7 +857,7 @@
         <v>3.6065573770491806E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -862,7 +866,7 @@
         <v>3.6065573770491806E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -871,7 +875,7 @@
         <v>3.6065573770491806E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -880,7 +884,7 @@
         <v>3.6065573770491806E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -889,7 +893,7 @@
         <v>3.6065573770491806E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -898,7 +902,7 @@
         <v>3.6065573770491806E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -907,7 +911,7 @@
         <v>3.6065573770491806E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -916,7 +920,7 @@
         <v>3.6065573770491806E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -925,7 +929,7 @@
         <v>3.6065573770491806E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -934,7 +938,7 @@
         <v>3.6065573770491806E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -943,7 +947,7 @@
         <v>3.6065573770491806E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -952,7 +956,7 @@
         <v>3.6065573770491806E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -961,7 +965,7 @@
         <v>3.6065573770491806E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -970,7 +974,7 @@
         <v>3.6065573770491806E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -979,7 +983,7 @@
         <v>3.6065573770491806E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>37</v>
       </c>

--- a/InputData/indst/PPRiFUfIIaIoE/Pot Perc Red in Fuel Use fr Impr Inst and Integ of Eqpt.xlsx
+++ b/InputData/indst/PPRiFUfIIaIoE/Pot Perc Red in Fuel Use fr Impr Inst and Integ of Eqpt.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/ct/indst/pprifufiiaioe/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/indst/pprifufiiaioe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0EA6A05-1405-8045-9DF5-12E0DEB1C907}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D33991F-FB29-ED49-A769-FA1041ADD0AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3540" yWindow="460" windowWidth="23580" windowHeight="15340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
